--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="БА-ПМИ-19-1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="57">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -50,72 +50,96 @@
     <t xml:space="preserve">П 13.10</t>
   </si>
   <si>
+    <t xml:space="preserve">20.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Л 27.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срез 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Д3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексеев Василий Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексеева Алтана Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бережнев Николай Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васильев Александр Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гоголев Алексей Альбертович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евдокимов Вячеслав Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жергин Михаил Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов Юлия Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кириллина Айаана Руслановна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корякин Айтал Петрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михайлов Федот Мисаилович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Павлова Диана Дмитриевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петров Таман Андреевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанов Алексей Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Степанов Тамерлан Джулустанович (с)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сыромятников Данил Андреевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отсутствуют</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноябрь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не сдали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Макс=34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Практика1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git основы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Л 22.09</t>
+  </si>
+  <si>
     <t xml:space="preserve">П 20.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Алексеев Василий Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексеева Алтана Александровна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бережнев Николай Николаевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Васильев Александр Николаевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гоголев Алексей Альбертович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Евдокимов Вячеслав Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жергин Михаил Михайлович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кириллина Айаана Руслановна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корякин Айтал Петрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Михайлов Федот Мисаилович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Павлова Диана Дмитриевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петров Таман Андреевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанов Алексей Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Степанов Тамерлан Джулустанович (с)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сыромятников Данил Андреевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иванов Юлия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отсутствуют</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не сдали</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Л 22.09</t>
-  </si>
-  <si>
     <t xml:space="preserve">Апросимов Владислав Леонидович</t>
   </si>
   <si>
@@ -137,6 +161,9 @@
     <t xml:space="preserve">Логанов Игорь Игоревич</t>
   </si>
   <si>
+    <t xml:space="preserve">Отчислен</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мохов Петр Владиславович</t>
   </si>
   <si>
@@ -144,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve">Подорожная Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет компа</t>
   </si>
   <si>
     <t xml:space="preserve">Попов Валерий Александрович</t>
@@ -168,10 +198,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -231,6 +262,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,9 +312,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,12 +345,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -334,19 +383,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL20"/>
+  <dimension ref="A1:BL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="10" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="14" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,9 +430,15 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -440,25 +496,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,25 +534,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,25 +572,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,25 +610,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,25 +648,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,28 +686,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,54 +724,72 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,25 +797,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,25 +835,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,25 +873,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,25 +911,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,24 +949,36 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -784,25 +987,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,51 +1025,75 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,7 +1105,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>2</v>
@@ -883,14 +1122,58 @@
       <c r="H19" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="J19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -908,10 +1191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -919,8 +1202,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="43.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -952,269 +1237,396 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
+      <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
+      <c r="B10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="2" t="n">
         <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
+      <c r="B11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1222,156 +1634,228 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>11</v>
+      <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2" t="n">
         <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
+      <c r="B14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="2" t="n">
         <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>12</v>
+      <c r="B15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>11</v>
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,7 +1866,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -1399,19 +1883,52 @@
       <c r="H19" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M20" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:K8"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="57">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -29,31 +29,31 @@
     <t xml:space="preserve">ФИО</t>
   </si>
   <si>
-    <t xml:space="preserve">Л 07.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П 15.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Л 22.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Л 29.09</t>
+    <t xml:space="preserve">07.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.09</t>
   </si>
   <si>
     <t xml:space="preserve">ДЗ-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Л 06.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П 13.10</t>
+    <t xml:space="preserve">06.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К13.10</t>
   </si>
   <si>
     <t xml:space="preserve">20.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Л 27.10</t>
+    <t xml:space="preserve">27.10</t>
   </si>
   <si>
     <t xml:space="preserve">Срез 1</t>
@@ -62,6 +62,12 @@
     <t xml:space="preserve">Д3-2</t>
   </si>
   <si>
+    <t xml:space="preserve">03.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Алексеев Василий Александрович</t>
   </si>
   <si>
@@ -89,7 +95,7 @@
     <t xml:space="preserve">Жергин Михаил Михайлович</t>
   </si>
   <si>
-    <t xml:space="preserve">Иванов Юлия Александровна</t>
+    <t xml:space="preserve">Иванова Юлия Александровна</t>
   </si>
   <si>
     <t xml:space="preserve">Кириллина Айаана Руслановна</t>
@@ -119,7 +125,7 @@
     <t xml:space="preserve">Отсутствуют</t>
   </si>
   <si>
-    <t xml:space="preserve">Ноябрь</t>
+    <t xml:space="preserve">До декабря</t>
   </si>
   <si>
     <t xml:space="preserve">Не сдали</t>
@@ -128,16 +134,10 @@
     <t xml:space="preserve">Макс=34</t>
   </si>
   <si>
-    <t xml:space="preserve">Практика1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Git основы</t>
   </si>
   <si>
-    <t xml:space="preserve">Л 22.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">П 20.10</t>
+    <t xml:space="preserve">22.09</t>
   </si>
   <si>
     <t xml:space="preserve">Апросимов Владислав Леонидович</t>
@@ -386,17 +386,24 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="14" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="16" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,8 +446,12 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -496,37 +507,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,37 +548,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,37 +589,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,37 +630,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,37 +671,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,37 +712,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,37 +753,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,34 +794,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,37 +832,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,37 +873,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,37 +914,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,37 +955,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,37 +996,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,37 +1037,40 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,75 +1078,81 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="N16" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,7 +1164,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>2</v>
@@ -1129,12 +1188,15 @@
         <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
@@ -1142,24 +1204,18 @@
       <c r="I20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M20" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M23" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
@@ -1191,21 +1247,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="43.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1222,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -1237,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
@@ -1247,6 +1307,12 @@
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1257,34 +1323,37 @@
         <v>39</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,34 +1364,37 @@
         <v>40</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,34 +1405,37 @@
         <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,34 +1446,37 @@
         <v>42</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L5" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,34 +1487,37 @@
         <v>43</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,34 +1528,37 @@
         <v>44</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,30 +1572,30 @@
         <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="0"/>
@@ -1524,34 +1608,37 @@
         <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,34 +1649,37 @@
         <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,34 +1690,40 @@
         <v>49</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>12</v>
+      <c r="N11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,34 +1734,37 @@
         <v>51</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,34 +1775,37 @@
         <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,34 +1816,37 @@
         <v>53</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,34 +1857,37 @@
         <v>54</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,34 +1898,37 @@
         <v>55</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,34 +1939,37 @@
         <v>56</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="L17" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,7 +1980,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -1890,12 +2004,15 @@
         <v>8</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
@@ -1903,24 +2020,21 @@
       <c r="I20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M22" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="M22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M23" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="M23" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="57">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -386,7 +386,7 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,6 +542,9 @@
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -583,6 +586,9 @@
       <c r="N3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -624,6 +630,9 @@
       <c r="N4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -665,6 +674,9 @@
       <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -706,6 +718,9 @@
       <c r="N6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -747,6 +762,9 @@
       <c r="N7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -788,6 +806,9 @@
       <c r="N8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -826,6 +847,9 @@
       <c r="N9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -867,6 +891,9 @@
       <c r="N10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -908,6 +935,9 @@
       <c r="N11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -949,6 +979,9 @@
       <c r="N12" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -990,6 +1023,9 @@
       <c r="N13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1031,6 +1067,9 @@
       <c r="N14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1072,6 +1111,9 @@
       <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1113,6 +1155,9 @@
       <c r="N16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O16" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1152,6 +1197,9 @@
         <v>34</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1250,7 +1298,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1355,6 +1403,9 @@
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -1396,6 +1447,9 @@
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -1437,6 +1491,9 @@
       <c r="N4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -1478,6 +1535,9 @@
       <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -1519,6 +1579,9 @@
       <c r="N6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1560,6 +1623,9 @@
       <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -1640,6 +1706,9 @@
       <c r="N9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -1681,6 +1750,9 @@
       <c r="N10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -1725,6 +1797,9 @@
       <c r="N11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O11" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1766,6 +1841,9 @@
       <c r="N12" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1807,6 +1885,9 @@
       <c r="N13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1848,6 +1929,9 @@
       <c r="N14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O14" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1889,6 +1973,9 @@
       <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1930,6 +2017,9 @@
       <c r="N16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="O16" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1969,6 +2059,9 @@
         <v>2</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="62">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t xml:space="preserve">10.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срез2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker</t>
   </si>
   <si>
     <t xml:space="preserve">Алексеев Василий Александрович</t>
@@ -386,20 +401,20 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.45"/>
@@ -452,11 +467,21 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
@@ -507,43 +532,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,43 +579,49 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>14</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,43 +629,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,43 +676,46 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,43 +723,46 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,43 +770,52 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,43 +823,52 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,40 +876,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,43 +920,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,43 +967,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>14</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,43 +1014,46 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,43 +1061,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,43 +1111,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,43 +1158,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,43 +1205,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,43 +1252,52 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>34</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,7 +1309,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>2</v>
@@ -1236,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>5</v>
@@ -1244,7 +1341,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
@@ -1256,10 +1353,10 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,23 +1392,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
+      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="43.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="2" width="11.52"/>
   </cols>
@@ -1330,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -1361,6 +1458,21 @@
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,43 +1480,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,43 +1530,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,43 +1577,52 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,43 +1630,49 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,43 +1680,46 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,43 +1727,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,82 +1777,91 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="0"/>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,43 +1869,46 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,46 +1916,49 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>12</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,43 +1966,46 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,43 +2013,46 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,43 +2060,46 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,43 +2107,46 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,43 +2154,46 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2026,43 +2201,46 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,7 +2251,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -2097,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>7</v>
@@ -2105,7 +2283,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
@@ -2117,10 +2295,10 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -331,7 +331,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,7 +356,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,12 +368,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -401,20 +409,20 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
+      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.45"/>
@@ -769,7 +777,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -822,7 +830,7 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1251,7 +1259,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1349,7 +1357,7 @@
       <c r="I20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
@@ -1402,11 +1410,11 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="43.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.45"/>
@@ -1479,10 +1487,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1529,10 +1537,10 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1576,10 +1584,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1629,10 +1637,10 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1679,10 +1687,10 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1726,10 +1734,10 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1776,34 +1784,34 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1818,10 +1826,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1868,10 +1876,10 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1915,10 +1923,10 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1965,10 +1973,10 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2012,10 +2020,10 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2059,10 +2067,10 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2106,10 +2114,10 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2153,10 +2161,10 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2200,10 +2208,10 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2291,7 +2299,7 @@
       <c r="I20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БА-ПМИ-19-1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="63">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зачет</t>
   </si>
   <si>
     <t xml:space="preserve">Алексеев Василий Александрович</t>
@@ -408,8 +411,8 @@
   </sheetPr>
   <dimension ref="A1:BL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,7 +493,9 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3"/>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -540,43 +545,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" s="2" t="n">
         <v>22</v>
@@ -587,43 +592,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>14</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="2" t="n">
         <v>34</v>
@@ -637,43 +642,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P4" s="2" t="n">
         <v>19</v>
@@ -684,43 +689,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="2" t="n">
         <v>18</v>
@@ -731,43 +736,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>12</v>
@@ -778,43 +783,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P7" s="2" t="n">
         <v>54</v>
@@ -824,6 +829,9 @@
       </c>
       <c r="S7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,43 +839,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>54</v>
@@ -877,6 +885,9 @@
       </c>
       <c r="S8" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,40 +895,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>30</v>
@@ -928,43 +939,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>28</v>
@@ -975,43 +986,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>14</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>32</v>
@@ -1022,43 +1033,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>14</v>
@@ -1069,43 +1080,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>14</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>34</v>
@@ -1119,43 +1130,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>32</v>
@@ -1166,43 +1177,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>16</v>
@@ -1213,43 +1224,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>30</v>
@@ -1260,43 +1271,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>34</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>54</v>
@@ -1306,6 +1317,9 @@
       </c>
       <c r="S17" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,7 +1331,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>2</v>
@@ -1341,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>5</v>
@@ -1349,7 +1363,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
@@ -1361,10 +1375,10 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,10 +1414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1435,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -1481,6 +1495,9 @@
       </c>
       <c r="T1" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,49 +1505,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="2" t="n">
         <v>42</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,43 +1558,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>8</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="2" t="n">
         <v>23</v>
@@ -1585,43 +1605,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P4" s="2" t="n">
         <v>40</v>
@@ -1631,6 +1651,9 @@
       </c>
       <c r="S4" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,43 +1661,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>20</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="2" t="n">
         <v>35</v>
@@ -1688,43 +1711,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>22</v>
@@ -1735,43 +1758,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P7" s="2" t="n">
         <v>30</v>
@@ -1785,34 +1808,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>0</v>
@@ -1827,43 +1850,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>25</v>
@@ -1877,43 +1900,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>27</v>
@@ -1924,46 +1947,46 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>12</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>32</v>
@@ -1974,43 +1997,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>14</v>
@@ -2021,43 +2044,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>32</v>
@@ -2068,43 +2091,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>32</v>
@@ -2115,43 +2138,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>10</v>
@@ -2162,43 +2185,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>10</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>25</v>
@@ -2209,43 +2232,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>10</v>
@@ -2259,7 +2282,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -2283,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>7</v>
@@ -2291,7 +2314,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
@@ -2303,10 +2326,10 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -412,10 +412,10 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -586,6 +586,9 @@
       <c r="P2" s="2" t="n">
         <v>22</v>
       </c>
+      <c r="S2" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -636,6 +639,9 @@
       <c r="R3" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="S3" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -730,6 +736,9 @@
       <c r="P5" s="2" t="n">
         <v>18</v>
       </c>
+      <c r="S5" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -980,6 +989,12 @@
       <c r="P10" s="2" t="n">
         <v>28</v>
       </c>
+      <c r="R10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -1027,6 +1042,12 @@
       <c r="P11" s="2" t="n">
         <v>32</v>
       </c>
+      <c r="R11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1124,6 +1145,9 @@
       <c r="R13" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="S13" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -1171,6 +1195,9 @@
       <c r="P14" s="2" t="n">
         <v>32</v>
       </c>
+      <c r="S14" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1218,6 +1245,9 @@
       <c r="P15" s="2" t="n">
         <v>16</v>
       </c>
+      <c r="S15" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -1264,6 +1294,9 @@
       </c>
       <c r="P16" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="S16" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,7 +1450,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S13" activeCellId="0" sqref="S13"/>
+      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -289,12 +289,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -334,7 +340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,6 +361,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,6 +374,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -379,7 +393,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,11 +441,11 @@
   </sheetPr>
   <dimension ref="A1:BL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -594,7 +624,7 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -791,7 +821,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -847,7 +877,7 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -947,7 +977,7 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1000,7 +1030,7 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1100,7 +1130,7 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1153,7 +1183,7 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1253,7 +1283,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1303,7 +1333,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1404,7 +1434,7 @@
       <c r="I20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
@@ -1450,7 +1480,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1537,10 +1567,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1590,10 +1620,10 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1637,10 +1667,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1693,10 +1723,10 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1739,50 +1769,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1" t="n">
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="2" t="n">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="17" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1790,10 +1821,10 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1840,34 +1871,34 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1882,10 +1913,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1932,10 +1963,10 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1979,10 +2010,10 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2025,50 +2056,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="1" t="n">
+      <c r="C12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="2" t="n">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="17" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2076,10 +2108,10 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2123,10 +2155,10 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2166,144 +2198,147 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="1" t="n">
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="2" t="n">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="1" t="n">
+      <c r="C16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="2" t="n">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="17" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="1" t="n">
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="2" t="n">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2355,7 +2390,7 @@
       <c r="I20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="БА-ПМИ-19-1" sheetId="1" state="visible" r:id="rId2"/>
@@ -340,7 +340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,10 +374,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,11 +437,11 @@
   </sheetPr>
   <dimension ref="A1:BL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -616,6 +612,9 @@
       <c r="P2" s="2" t="n">
         <v>22</v>
       </c>
+      <c r="R2" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" s="2" t="n">
         <v>3</v>
       </c>
@@ -1130,7 +1129,7 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1434,7 +1433,7 @@
       <c r="I20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
@@ -1479,7 +1478,7 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1567,10 +1566,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1620,10 +1619,10 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1667,10 +1666,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1723,10 +1722,10 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1769,51 +1768,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="6" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="15" t="n">
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="17" t="n">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="16" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1821,10 +1820,10 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1871,34 +1870,34 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1913,10 +1912,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1963,10 +1962,10 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2010,10 +2009,10 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2056,51 +2055,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+    <row r="12" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="15" t="n">
+      <c r="C12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="17" t="n">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="16" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2108,10 +2107,10 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2155,10 +2154,10 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2198,147 +2197,147 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+    <row r="15" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="15" t="n">
+      <c r="C15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="17" t="n">
+      <c r="M15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="16" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="n">
+    <row r="16" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="15" t="n">
+      <c r="C16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="17" t="n">
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="16" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
+    <row r="17" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="15" t="n">
+      <c r="C17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="17" t="n">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2390,7 +2389,7 @@
       <c r="I20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="63">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -340,7 +340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,6 +371,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -437,11 +441,11 @@
   </sheetPr>
   <dimension ref="A1:BL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -616,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,7 +673,10 @@
         <v>5</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,7 +875,7 @@
       <c r="S7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -876,7 +883,7 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -924,7 +931,7 @@
       <c r="S8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1075,7 +1082,10 @@
         <v>5</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,7 +1185,10 @@
         <v>5</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,7 +1393,7 @@
       <c r="S17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1433,7 +1446,7 @@
       <c r="I20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
@@ -1479,7 +1492,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="U4" activeCellId="0" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1566,10 +1579,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1619,10 +1632,10 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1666,10 +1679,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1722,10 +1735,10 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1768,51 +1781,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="6" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="14" t="n">
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="16" t="n">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="17" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1820,10 +1833,10 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1870,34 +1883,34 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1912,10 +1925,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1962,10 +1975,10 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2009,10 +2022,10 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2055,51 +2068,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+    <row r="12" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="14" t="n">
+      <c r="C12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="16" t="n">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="17" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2107,10 +2120,10 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2154,10 +2167,10 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2197,147 +2210,147 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+    <row r="15" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="14" t="n">
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="16" t="n">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="16" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+    <row r="16" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="14" t="n">
+      <c r="C16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="16" t="n">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="17" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="16" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+    <row r="17" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="14" t="n">
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="16" t="n">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2389,7 +2402,7 @@
       <c r="I20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="63">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -340,7 +340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,11 +361,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,10 +446,10 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -608,19 +612,23 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>22</v>
+        <f aca="false">22+5</f>
+        <v>27</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>5</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +691,7 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -730,7 +738,7 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -780,7 +788,7 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -827,7 +835,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -875,7 +883,7 @@
       <c r="S7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -883,7 +891,7 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -931,7 +939,7 @@
       <c r="S8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1029,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,7 +1100,7 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1245,7 +1253,7 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1345,7 +1353,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1393,7 +1401,7 @@
       <c r="S17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="U17" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1446,7 +1454,7 @@
       <c r="I20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
@@ -1579,10 +1587,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1632,10 +1640,10 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1679,10 +1687,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1735,10 +1743,10 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1781,51 +1789,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="6" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="15" t="n">
+      <c r="C6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="17" t="n">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1833,10 +1841,10 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1883,34 +1891,34 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1925,10 +1933,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1975,10 +1983,10 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2022,10 +2030,10 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2068,51 +2076,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+    <row r="12" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="15" t="n">
+      <c r="C12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="17" t="n">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2120,10 +2128,10 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2167,10 +2175,10 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2210,147 +2218,147 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+    <row r="15" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="15" t="n">
+      <c r="C15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="17" t="n">
+      <c r="M15" s="16"/>
+      <c r="N15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="18" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="n">
+    <row r="16" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="15" t="n">
+      <c r="C16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="17" t="n">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="18" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
+    <row r="17" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="15" t="n">
+      <c r="C17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="17" t="n">
+      <c r="M17" s="16"/>
+      <c r="N17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="18" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2402,7 +2410,7 @@
       <c r="I20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="БА-ПМИ-19-1" sheetId="1" state="visible" r:id="rId2"/>
@@ -340,7 +340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,10 +359,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -445,11 +441,11 @@
   </sheetPr>
   <dimension ref="A1:BL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -635,7 +631,7 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -691,7 +687,7 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -738,7 +734,7 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -788,7 +784,7 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -835,7 +831,7 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -883,7 +879,7 @@
       <c r="S7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -891,7 +887,7 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -939,7 +935,7 @@
       <c r="S8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -991,7 +987,7 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1044,7 +1040,7 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1100,7 +1096,7 @@
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1147,7 +1143,7 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1203,7 +1199,7 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1253,7 +1249,7 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1303,7 +1299,7 @@
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1353,7 +1349,7 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1401,7 +1397,7 @@
       <c r="S17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1454,7 +1450,7 @@
       <c r="I20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
@@ -1499,8 +1495,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U4" activeCellId="0" sqref="U4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1587,10 +1583,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1640,10 +1636,10 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1687,10 +1683,10 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1743,10 +1739,10 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1789,51 +1785,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="6" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="16" t="n">
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="18" t="n">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="17" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1841,10 +1837,10 @@
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1891,34 +1887,34 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1933,10 +1929,10 @@
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1983,10 +1979,10 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2030,10 +2026,10 @@
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2075,52 +2071,55 @@
       <c r="P11" s="2" t="n">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="R11" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="16" t="n">
+      <c r="C12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="18" t="n">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="17" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2128,10 +2127,10 @@
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2169,16 +2168,19 @@
       </c>
       <c r="P13" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2218,147 +2220,147 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="n">
+    <row r="15" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="16" t="n">
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="18" t="n">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="n">
+    <row r="16" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="16" t="n">
+      <c r="C16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="18" t="n">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="17" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+    <row r="17" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="16" t="n">
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="18" t="n">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="17" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2410,7 +2412,7 @@
       <c r="I20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="M20" s="11"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -445,7 +445,7 @@
       <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2074,6 +2074,9 @@
       <c r="R11" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="S11" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="n">
@@ -2171,6 +2174,9 @@
       </c>
       <c r="R13" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="64">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Бережнев Николай Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Незачет</t>
   </si>
   <si>
     <t xml:space="preserve">Васильев Александр Николаевич</t>
@@ -442,10 +445,10 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -729,13 +732,16 @@
       <c r="P4" s="2" t="n">
         <v>19</v>
       </c>
+      <c r="U4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -779,13 +785,16 @@
       <c r="S5" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="U5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -825,6 +834,9 @@
       </c>
       <c r="P6" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -888,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -944,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -981,6 +993,9 @@
       </c>
       <c r="P9" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -1034,6 +1049,9 @@
       </c>
       <c r="S10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -1097,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1137,6 +1155,9 @@
       </c>
       <c r="P12" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1200,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1243,6 +1264,9 @@
       </c>
       <c r="S14" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1293,6 +1317,9 @@
       </c>
       <c r="S15" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -1343,6 +1370,9 @@
       </c>
       <c r="S16" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1410,7 +1440,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>2</v>
@@ -1434,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>5</v>
@@ -1442,7 +1472,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
@@ -1454,10 +1484,10 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1526,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1528,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -1584,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
@@ -1637,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>22</v>
@@ -1677,6 +1707,9 @@
       </c>
       <c r="P3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>22</v>
@@ -1740,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>22</v>
@@ -1784,13 +1817,16 @@
       <c r="S5" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="U5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>22</v>
@@ -1831,6 +1867,9 @@
       </c>
       <c r="P6" s="17" t="n">
         <v>22</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1877,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>22</v>
@@ -1881,6 +1920,9 @@
       </c>
       <c r="R7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,49 +1930,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0"/>
-      <c r="P8" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>22</v>
@@ -1971,8 +2000,17 @@
       <c r="P9" s="2" t="n">
         <v>25</v>
       </c>
+      <c r="R9" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>22</v>
@@ -2020,6 +2058,9 @@
       </c>
       <c r="P10" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>22</v>
@@ -2060,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>22</v>
@@ -2076,6 +2117,9 @@
       </c>
       <c r="S11" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,7 +2127,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>22</v>
@@ -2124,6 +2168,9 @@
       </c>
       <c r="P12" s="17" t="n">
         <v>14</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,7 +2178,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>22</v>
@@ -2177,6 +2224,9 @@
       </c>
       <c r="S13" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,7 +2234,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>22</v>
@@ -2224,6 +2274,15 @@
       </c>
       <c r="P14" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,7 +2290,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>23</v>
@@ -2272,6 +2331,9 @@
       </c>
       <c r="P15" s="17" t="n">
         <v>10</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>22</v>
@@ -2320,6 +2382,9 @@
       </c>
       <c r="P16" s="17" t="n">
         <v>25</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>23</v>
@@ -2368,6 +2433,9 @@
       </c>
       <c r="P17" s="17" t="n">
         <v>10</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,7 +2446,7 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -2402,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>7</v>
@@ -2410,7 +2478,7 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>13</v>
@@ -2422,10 +2490,10 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,7 +2504,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C8:U8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/ПМИ-19.xlsx
+++ b/ПМИ-19.xlsx
@@ -448,7 +448,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1868,6 +1868,12 @@
       <c r="P6" s="17" t="n">
         <v>22</v>
       </c>
+      <c r="R6" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" s="17" t="n">
+        <v>5</v>
+      </c>
       <c r="U6" s="2" t="s">
         <v>26</v>
       </c>
